--- a/Symphony/2021/Others/Document/Final/Mugdho Corporation Sales Top Sheet.xlsx
+++ b/Symphony/2021/Others/Document/Final/Mugdho Corporation Sales Top Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -30,12 +30,6 @@
     <t>Month</t>
   </si>
   <si>
-    <t>May_2020</t>
-  </si>
-  <si>
-    <t>June_2020</t>
-  </si>
-  <si>
     <t>July_2020</t>
   </si>
   <si>
@@ -72,7 +66,16 @@
     <t>Sales Value</t>
   </si>
   <si>
-    <t>Sales Statement of May'2020-April'2021</t>
+    <t>May_2021</t>
+  </si>
+  <si>
+    <t>June_2021</t>
+  </si>
+  <si>
+    <t>Sales Statement of June'2020-July'2021</t>
+  </si>
+  <si>
+    <t>Distributior: Symphony Mobile(Edison Group)</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,6 +201,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,17 +486,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L5:L6"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
@@ -500,171 +506,179 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
-        <v>12139490</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8">
-        <v>13736750</v>
+      <c r="C5" s="4">
+        <v>16146235</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
+        <v>12689990</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8">
-        <v>16146235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="C7" s="8">
+        <v>19128525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8">
-        <v>12689990</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>7</v>
-      </c>
       <c r="C8" s="8">
-        <v>19128525</v>
+        <v>15831770</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8">
+        <v>13176160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8">
-        <v>15831770</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="C10" s="8">
+        <v>14108990</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8">
-        <v>13176160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="C11" s="8">
-        <v>14108990</v>
+        <v>13468005</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8">
+        <v>10838070</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8">
-        <v>13468005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="C13" s="8">
+        <v>12081660</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="8">
-        <v>10838070</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>11</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>13</v>
-      </c>
       <c r="C14" s="8">
-        <v>12081660</v>
+        <v>7235245</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8">
+        <v>10756818.775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="8">
-        <v>7235245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="6">
-        <f>SUM(C4:C15)</f>
-        <v>160580890</v>
+      <c r="B16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="8">
+        <v>12131050</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="6">
+        <f>SUM(C5:C16)</f>
+        <v>157592518.77500001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
